--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value435.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value435.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.300426490142138</v>
+        <v>1.365536093711853</v>
       </c>
       <c r="B1">
-        <v>2.000827339769521</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.085580413919083</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.275863735757789</v>
+        <v>1.582652688026428</v>
       </c>
       <c r="E1">
-        <v>1.582309329278491</v>
+        <v>1.072437286376953</v>
       </c>
     </row>
   </sheetData>
